--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_08_08 09_02_09.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_08_08 09_02_09.xlsx
@@ -6927,13 +6927,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3CDD07-6B7E-4913-B4E7-C22C11B523B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDE7433-2600-4209-862D-CC79F1A50923}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB2E0E09-063F-49B6-8805-EC0681AF6B3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3D2520-AB22-48A9-9FD6-6A5C6DA01BEC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F006B00-6EF2-4438-BA6C-612E5D490563}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED8287A9-6266-4920-A71D-0BFD62F3039D}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_08_08 09_02_09.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_08_08 09_02_09.xlsx
@@ -6927,13 +6927,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CDE7433-2600-4209-862D-CC79F1A50923}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67BA33BB-2D11-46A9-BFB2-C817D2884FAA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3D2520-AB22-48A9-9FD6-6A5C6DA01BEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{083C575C-58A3-4586-9528-DE8959323A06}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED8287A9-6266-4920-A71D-0BFD62F3039D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B828937-C817-4418-A419-9A05C59CAAD3}"/>
 </file>